--- a/medicine/Handicap/Don't_Worry,_He_Won't_Get_Far_on_Foot/Don't_Worry,_He_Won't_Get_Far_on_Foot.xlsx
+++ b/medicine/Handicap/Don't_Worry,_He_Won't_Get_Far_on_Foot/Don't_Worry,_He_Won't_Get_Far_on_Foot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Don't Worry, He Won't Get Far on Foot est un drame biographique américain écrit et réalisé par Gus Van Sant, sorti en 2018. Il s’agit de l’adaptation de l'autobiographie homonyme de John Callahan (en).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John Callahan (en), devenu tétraplégique à l'âge de vingt et un ans à cause de son alcoolisme, trouve dans le dessin une forme de thérapie avant de devenir un célèbre dessinateur de bandes dessinées.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Don't Worry, He Won't Get Far on Foot
@@ -559,7 +575,7 @@
 Format : couleur
 Genre : drame biographique
 Durée : 113 minutes
-Dates de sortie[1] :
+Dates de sortie :
 États-Unis : 19 janvier 2018 (festival du film de Sundance) ; 11 mai 2018
 France : 4 avril 2018</t>
         </is>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Joaquin Phoenix (VF : Boris Rehlinger) : John Callahan (en)
 Jonah Hill (VF : Christophe Lemoine) : Donny
@@ -637,7 +655,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -655,10 +673,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acteur Robin Williams vers 1997, lors de la production de Will Hunting de Van Sant, acheta les droits de l'autobiographie Don't Worry, He Won't Get Far on Foot de John Callahan (en) et comptait interpréter le dessinateur. Le projet ne se concrétise pas malgré plusieurs versions du scénario et est interrompu par les morts soudaines de Callahan en 2010 et Williams en 2014. Sony Pictures détenait les droits du livre avec la société de Williams et proposa à Van Sant l'adaptation. Le scénario fut réécrit et se veut plus fidèle à l'autobiographie de Callahan que les versions avec Williams[2],[3].
-En novembre 2016, il est annoncé que Joaquin Phoenix jouera le dessinateur John Callahan, toujours basé sur son autobiographie, devant la caméra de Gus Van Sant, vingt-deux ans après leur première collaboration sur Prête à tout[4]. Le mois suivant, Rooney Mara et Jonah Hill rejoignent Joaquin Phoenix. Jack Black complète la distribution en février 2017[5],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acteur Robin Williams vers 1997, lors de la production de Will Hunting de Van Sant, acheta les droits de l'autobiographie Don't Worry, He Won't Get Far on Foot de John Callahan (en) et comptait interpréter le dessinateur. Le projet ne se concrétise pas malgré plusieurs versions du scénario et est interrompu par les morts soudaines de Callahan en 2010 et Williams en 2014. Sony Pictures détenait les droits du livre avec la société de Williams et proposa à Van Sant l'adaptation. Le scénario fut réécrit et se veut plus fidèle à l'autobiographie de Callahan que les versions avec Williams,.
+En novembre 2016, il est annoncé que Joaquin Phoenix jouera le dessinateur John Callahan, toujours basé sur son autobiographie, devant la caméra de Gus Van Sant, vingt-deux ans après leur première collaboration sur Prête à tout. Le mois suivant, Rooney Mara et Jonah Hill rejoignent Joaquin Phoenix. Jack Black complète la distribution en février 2017,.
 </t>
         </is>
       </c>
@@ -669,7 +689,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -689,10 +709,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Critique
-En France, le site Allociné recense une moyenne des critiques presse de 3,1/5, et des critiques spectateurs à 2,9/5[7]. Télérama le note 1/4 avec la mention « on aime peu »[8].
-Box-office
- France : 19 329 entrées[9]</t>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 3,1/5, et des critiques spectateurs à 2,9/5. Télérama le note 1/4 avec la mention « on aime peu ».
+</t>
         </is>
       </c>
     </row>
@@ -702,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -717,10 +741,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France : 19 329 entrées</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Don't_Worry,_He_Won't_Get_Far_on_Foot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Don%27t_Worry,_He_Won%27t_Get_Far_on_Foot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Berlinale 2018 : En compétition</t>
         </is>
